--- a/src/test/resources/TestDriver/TestAsset/Model/Model_FixedAsset.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/Model/Model_FixedAsset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7C6B4-FC5B-486E-ABC7-14B87EA582EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F943BC-69EA-4A47-87A1-F289935BD0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +519,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -719,7 +725,7 @@
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,6 +909,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1559,10 +1570,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,32 +1619,100 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="76"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="76"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1648,10 +1727,10 @@
   <dimension ref="A1:BD84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="AU11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BD11" sqref="BD11"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2220,9 +2299,9 @@
         <f>IF(BB11="","","Depreciation_Expense")</f>
         <v/>
       </c>
-      <c r="BD11" t="str">
-        <f>IFERROR(IF(INDEX($O$9:$BD$55, MATCH(BB11, $D$9:$D$55, 0), MATCH($H$4, $O$10:$BD$10, 0))="",0,INDEX($O$9:$BD$55, MATCH(BB11, $D$9:$D$55, 0), MATCH($H$4, $O$10:$BD$10, 0))),"")</f>
-        <v/>
+      <c r="BD11" t="e">
+        <f>INDEX($K$10:$BD$55, MATCH(BB11, $D$10:$D$55, 0), MATCH($H$4, $K$10:$BD$10, 1))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
@@ -2442,9 +2521,9 @@
         <f t="shared" ref="BC12:BC55" si="45">IF(BB12="","","Depreciation_Expense")</f>
         <v/>
       </c>
-      <c r="BD12" t="str">
-        <f t="shared" ref="BD12:BD55" si="46">IFERROR(IF(INDEX($O$9:$BD$55, MATCH(BB12, $D$9:$D$55, 0), MATCH($H$4, $O$10:$BD$10, 0))="",0,INDEX($O$9:$BD$55, MATCH(BB12, $D$9:$D$55, 0), MATCH($H$4, $O$10:$BD$10, 0))),"")</f>
-        <v/>
+      <c r="BD12" t="e">
+        <f t="shared" ref="BD12:BD55" si="46">INDEX($K$10:$BD$55, MATCH(BB12, $D$10:$D$55, 0), MATCH($H$4, $K$10:$BD$10, 1))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
@@ -2664,9 +2743,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD13" t="str">
+      <c r="BD13" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
@@ -2886,9 +2965,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD14" t="str">
+      <c r="BD14" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
@@ -3108,9 +3187,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD15" t="str">
+      <c r="BD15" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
@@ -3330,9 +3409,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD16" t="str">
+      <c r="BD16" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
@@ -3552,9 +3631,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD17" t="str">
+      <c r="BD17" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
@@ -3579,15 +3658,15 @@
         <v/>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(EOD!F9="","",EOD!F9)</f>
+        <f>IF(EOD!G9="","",EOD!G9)</f>
         <v/>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF(EOD!G9="","",EOD!G9)</f>
+        <f>IF(EOD!H9="","",EOD!H9)</f>
         <v/>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(EOD!H9="","",EOD!H9)</f>
+        <f>IF(EOD!I9="","",EOD!I9)</f>
         <v/>
       </c>
       <c r="I18" s="5">
@@ -3774,9 +3853,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD18" t="str">
+      <c r="BD18" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
@@ -3801,15 +3880,15 @@
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(EOD!F10="","",EOD!F10)</f>
+        <f>IF(EOD!G10="","",EOD!G10)</f>
         <v/>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF(EOD!G10="","",EOD!G10)</f>
+        <f>IF(EOD!H10="","",EOD!H10)</f>
         <v/>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(EOD!H10="","",EOD!H10)</f>
+        <f>IF(EOD!I10="","",EOD!I10)</f>
         <v/>
       </c>
       <c r="I19" s="5">
@@ -3996,9 +4075,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD19" t="str">
+      <c r="BD19" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
@@ -4023,15 +4102,15 @@
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(EOD!F11="","",EOD!F11)</f>
+        <f>IF(EOD!G11="","",EOD!G11)</f>
         <v/>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF(EOD!G11="","",EOD!G11)</f>
+        <f>IF(EOD!H11="","",EOD!H11)</f>
         <v/>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(EOD!H11="","",EOD!H11)</f>
+        <f>IF(EOD!I11="","",EOD!I11)</f>
         <v/>
       </c>
       <c r="I20" s="5">
@@ -4218,9 +4297,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD20" t="str">
+      <c r="BD20" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
@@ -4245,15 +4324,15 @@
         <v/>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(EOD!F12="","",EOD!F12)</f>
+        <f>IF(EOD!G12="","",EOD!G12)</f>
         <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF(EOD!G12="","",EOD!G12)</f>
+        <f>IF(EOD!H12="","",EOD!H12)</f>
         <v/>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(EOD!H12="","",EOD!H12)</f>
+        <f>IF(EOD!I12="","",EOD!I12)</f>
         <v/>
       </c>
       <c r="I21" s="5">
@@ -4440,9 +4519,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD21" t="str">
+      <c r="BD21" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
@@ -4467,15 +4546,15 @@
         <v/>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(EOD!F13="","",EOD!F13)</f>
+        <f>IF(EOD!G13="","",EOD!G13)</f>
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(EOD!G13="","",EOD!G13)</f>
+        <f>IF(EOD!H13="","",EOD!H13)</f>
         <v/>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(EOD!H13="","",EOD!H13)</f>
+        <f>IF(EOD!I13="","",EOD!I13)</f>
         <v/>
       </c>
       <c r="I22" s="5">
@@ -4662,9 +4741,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD22" t="str">
+      <c r="BD22" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
@@ -4689,15 +4768,15 @@
         <v/>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(EOD!F14="","",EOD!F14)</f>
+        <f>IF(EOD!G14="","",EOD!G14)</f>
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(EOD!G14="","",EOD!G14)</f>
+        <f>IF(EOD!H14="","",EOD!H14)</f>
         <v/>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(EOD!H14="","",EOD!H14)</f>
+        <f>IF(EOD!I14="","",EOD!I14)</f>
         <v/>
       </c>
       <c r="I23" s="5">
@@ -4884,9 +4963,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD23" t="str">
+      <c r="BD23" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
@@ -4911,15 +4990,15 @@
         <v/>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(EOD!F15="","",EOD!F15)</f>
+        <f>IF(EOD!G15="","",EOD!G15)</f>
         <v/>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF(EOD!G15="","",EOD!G15)</f>
+        <f>IF(EOD!H15="","",EOD!H15)</f>
         <v/>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(EOD!H15="","",EOD!H15)</f>
+        <f>IF(EOD!I15="","",EOD!I15)</f>
         <v/>
       </c>
       <c r="I24" s="5">
@@ -5106,9 +5185,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD24" t="str">
+      <c r="BD24" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
@@ -5133,15 +5212,15 @@
         <v/>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(EOD!F16="","",EOD!F16)</f>
+        <f>IF(EOD!G16="","",EOD!G16)</f>
         <v/>
       </c>
       <c r="G25" s="1" t="str">
-        <f>IF(EOD!G16="","",EOD!G16)</f>
+        <f>IF(EOD!H16="","",EOD!H16)</f>
         <v/>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(EOD!H16="","",EOD!H16)</f>
+        <f>IF(EOD!I16="","",EOD!I16)</f>
         <v/>
       </c>
       <c r="I25" s="5">
@@ -5328,9 +5407,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD25" t="str">
+      <c r="BD25" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
@@ -5355,15 +5434,15 @@
         <v/>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(EOD!F17="","",EOD!F17)</f>
+        <f>IF(EOD!G17="","",EOD!G17)</f>
         <v/>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(EOD!G17="","",EOD!G17)</f>
+        <f>IF(EOD!H17="","",EOD!H17)</f>
         <v/>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(EOD!H17="","",EOD!H17)</f>
+        <f>IF(EOD!I17="","",EOD!I17)</f>
         <v/>
       </c>
       <c r="I26" s="5">
@@ -5550,9 +5629,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD26" t="str">
+      <c r="BD26" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
@@ -5577,15 +5656,15 @@
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(EOD!F18="","",EOD!F18)</f>
+        <f>IF(EOD!G18="","",EOD!G18)</f>
         <v/>
       </c>
       <c r="G27" s="1" t="str">
-        <f>IF(EOD!G18="","",EOD!G18)</f>
+        <f>IF(EOD!H18="","",EOD!H18)</f>
         <v/>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(EOD!H18="","",EOD!H18)</f>
+        <f>IF(EOD!I18="","",EOD!I18)</f>
         <v/>
       </c>
       <c r="I27" s="5">
@@ -5772,9 +5851,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD27" t="str">
+      <c r="BD27" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
@@ -5799,15 +5878,15 @@
         <v/>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(EOD!F19="","",EOD!F19)</f>
+        <f>IF(EOD!G19="","",EOD!G19)</f>
         <v/>
       </c>
       <c r="G28" s="1" t="str">
-        <f>IF(EOD!G19="","",EOD!G19)</f>
+        <f>IF(EOD!H19="","",EOD!H19)</f>
         <v/>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(EOD!H19="","",EOD!H19)</f>
+        <f>IF(EOD!I19="","",EOD!I19)</f>
         <v/>
       </c>
       <c r="I28" s="5">
@@ -5994,9 +6073,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD28" t="str">
+      <c r="BD28" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6021,15 +6100,15 @@
         <v/>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(EOD!F20="","",EOD!F20)</f>
+        <f>IF(EOD!G20="","",EOD!G20)</f>
         <v/>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF(EOD!G20="","",EOD!G20)</f>
+        <f>IF(EOD!H20="","",EOD!H20)</f>
         <v/>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF(EOD!H20="","",EOD!H20)</f>
+        <f>IF(EOD!I20="","",EOD!I20)</f>
         <v/>
       </c>
       <c r="I29" s="5">
@@ -6216,9 +6295,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD29" t="str">
+      <c r="BD29" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6243,15 +6322,15 @@
         <v/>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(EOD!F21="","",EOD!F21)</f>
+        <f>IF(EOD!G21="","",EOD!G21)</f>
         <v/>
       </c>
       <c r="G30" s="1" t="str">
-        <f>IF(EOD!G21="","",EOD!G21)</f>
+        <f>IF(EOD!H21="","",EOD!H21)</f>
         <v/>
       </c>
       <c r="H30" s="1" t="str">
-        <f>IF(EOD!H21="","",EOD!H21)</f>
+        <f>IF(EOD!I21="","",EOD!I21)</f>
         <v/>
       </c>
       <c r="I30" s="5">
@@ -6438,9 +6517,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD30" t="str">
+      <c r="BD30" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6465,15 +6544,15 @@
         <v/>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(EOD!F22="","",EOD!F22)</f>
+        <f>IF(EOD!G22="","",EOD!G22)</f>
         <v/>
       </c>
       <c r="G31" s="1" t="str">
-        <f>IF(EOD!G22="","",EOD!G22)</f>
+        <f>IF(EOD!H22="","",EOD!H22)</f>
         <v/>
       </c>
       <c r="H31" s="1" t="str">
-        <f>IF(EOD!H22="","",EOD!H22)</f>
+        <f>IF(EOD!I22="","",EOD!I22)</f>
         <v/>
       </c>
       <c r="I31" s="5">
@@ -6660,9 +6739,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD31" t="str">
+      <c r="BD31" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6687,15 +6766,15 @@
         <v/>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(EOD!F23="","",EOD!F23)</f>
+        <f>IF(EOD!G23="","",EOD!G23)</f>
         <v/>
       </c>
       <c r="G32" s="1" t="str">
-        <f>IF(EOD!G23="","",EOD!G23)</f>
+        <f>IF(EOD!H23="","",EOD!H23)</f>
         <v/>
       </c>
       <c r="H32" s="1" t="str">
-        <f>IF(EOD!H23="","",EOD!H23)</f>
+        <f>IF(EOD!I23="","",EOD!I23)</f>
         <v/>
       </c>
       <c r="I32" s="5">
@@ -6882,9 +6961,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD32" t="str">
+      <c r="BD32" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6909,15 +6988,15 @@
         <v/>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(EOD!F24="","",EOD!F24)</f>
+        <f>IF(EOD!G24="","",EOD!G24)</f>
         <v/>
       </c>
       <c r="G33" s="1" t="str">
-        <f>IF(EOD!G24="","",EOD!G24)</f>
+        <f>IF(EOD!H24="","",EOD!H24)</f>
         <v/>
       </c>
       <c r="H33" s="1" t="str">
-        <f>IF(EOD!H24="","",EOD!H24)</f>
+        <f>IF(EOD!I24="","",EOD!I24)</f>
         <v/>
       </c>
       <c r="I33" s="5">
@@ -7104,9 +7183,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD33" t="str">
+      <c r="BD33" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7131,15 +7210,15 @@
         <v/>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(EOD!F25="","",EOD!F25)</f>
+        <f>IF(EOD!G25="","",EOD!G25)</f>
         <v/>
       </c>
       <c r="G34" s="1" t="str">
-        <f>IF(EOD!G25="","",EOD!G25)</f>
+        <f>IF(EOD!H25="","",EOD!H25)</f>
         <v/>
       </c>
       <c r="H34" s="1" t="str">
-        <f>IF(EOD!H25="","",EOD!H25)</f>
+        <f>IF(EOD!I25="","",EOD!I25)</f>
         <v/>
       </c>
       <c r="I34" s="5">
@@ -7326,9 +7405,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD34" t="str">
+      <c r="BD34" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7353,15 +7432,15 @@
         <v/>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(EOD!F26="","",EOD!F26)</f>
+        <f>IF(EOD!G26="","",EOD!G26)</f>
         <v/>
       </c>
       <c r="G35" s="1" t="str">
-        <f>IF(EOD!G26="","",EOD!G26)</f>
+        <f>IF(EOD!H26="","",EOD!H26)</f>
         <v/>
       </c>
       <c r="H35" s="1" t="str">
-        <f>IF(EOD!H26="","",EOD!H26)</f>
+        <f>IF(EOD!I26="","",EOD!I26)</f>
         <v/>
       </c>
       <c r="I35" s="5">
@@ -7548,9 +7627,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD35" t="str">
+      <c r="BD35" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7575,15 +7654,15 @@
         <v/>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF(EOD!F27="","",EOD!F27)</f>
+        <f>IF(EOD!G27="","",EOD!G27)</f>
         <v/>
       </c>
       <c r="G36" s="1" t="str">
-        <f>IF(EOD!G27="","",EOD!G27)</f>
+        <f>IF(EOD!H27="","",EOD!H27)</f>
         <v/>
       </c>
       <c r="H36" s="1" t="str">
-        <f>IF(EOD!H27="","",EOD!H27)</f>
+        <f>IF(EOD!I27="","",EOD!I27)</f>
         <v/>
       </c>
       <c r="I36" s="5">
@@ -7770,9 +7849,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD36" t="str">
+      <c r="BD36" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7797,15 +7876,15 @@
         <v/>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF(EOD!F28="","",EOD!F28)</f>
+        <f>IF(EOD!G28="","",EOD!G28)</f>
         <v/>
       </c>
       <c r="G37" s="1" t="str">
-        <f>IF(EOD!G28="","",EOD!G28)</f>
+        <f>IF(EOD!H28="","",EOD!H28)</f>
         <v/>
       </c>
       <c r="H37" s="1" t="str">
-        <f>IF(EOD!H28="","",EOD!H28)</f>
+        <f>IF(EOD!I28="","",EOD!I28)</f>
         <v/>
       </c>
       <c r="I37" s="5">
@@ -7992,9 +8071,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD37" t="str">
+      <c r="BD37" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8019,15 +8098,15 @@
         <v/>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF(EOD!F29="","",EOD!F29)</f>
+        <f>IF(EOD!G29="","",EOD!G29)</f>
         <v/>
       </c>
       <c r="G38" s="1" t="str">
-        <f>IF(EOD!G29="","",EOD!G29)</f>
+        <f>IF(EOD!H29="","",EOD!H29)</f>
         <v/>
       </c>
       <c r="H38" s="1" t="str">
-        <f>IF(EOD!H29="","",EOD!H29)</f>
+        <f>IF(EOD!I29="","",EOD!I29)</f>
         <v/>
       </c>
       <c r="I38" s="5">
@@ -8214,9 +8293,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD38" t="str">
+      <c r="BD38" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:56" collapsed="1" x14ac:dyDescent="0.25">
@@ -8241,15 +8320,15 @@
         <v/>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF(EOD!F30="","",EOD!F30)</f>
+        <f>IF(EOD!G30="","",EOD!G30)</f>
         <v/>
       </c>
       <c r="G39" s="1" t="str">
-        <f>IF(EOD!G30="","",EOD!G30)</f>
+        <f>IF(EOD!H30="","",EOD!H30)</f>
         <v/>
       </c>
       <c r="H39" s="1" t="str">
-        <f>IF(EOD!H30="","",EOD!H30)</f>
+        <f>IF(EOD!I30="","",EOD!I30)</f>
         <v/>
       </c>
       <c r="I39" s="5">
@@ -8436,9 +8515,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD39" t="str">
+      <c r="BD39" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8463,15 +8542,15 @@
         <v/>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF(EOD!F31="","",EOD!F31)</f>
+        <f>IF(EOD!G31="","",EOD!G31)</f>
         <v/>
       </c>
       <c r="G40" s="1" t="str">
-        <f>IF(EOD!G31="","",EOD!G31)</f>
+        <f>IF(EOD!H31="","",EOD!H31)</f>
         <v/>
       </c>
       <c r="H40" s="1" t="str">
-        <f>IF(EOD!H31="","",EOD!H31)</f>
+        <f>IF(EOD!I31="","",EOD!I31)</f>
         <v/>
       </c>
       <c r="I40" s="5">
@@ -8658,9 +8737,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD40" t="str">
+      <c r="BD40" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8685,15 +8764,15 @@
         <v/>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF(EOD!F32="","",EOD!F32)</f>
+        <f>IF(EOD!G32="","",EOD!G32)</f>
         <v/>
       </c>
       <c r="G41" s="1" t="str">
-        <f>IF(EOD!G32="","",EOD!G32)</f>
+        <f>IF(EOD!H32="","",EOD!H32)</f>
         <v/>
       </c>
       <c r="H41" s="1" t="str">
-        <f>IF(EOD!H32="","",EOD!H32)</f>
+        <f>IF(EOD!I32="","",EOD!I32)</f>
         <v/>
       </c>
       <c r="I41" s="5">
@@ -8880,9 +8959,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD41" t="str">
+      <c r="BD41" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8907,15 +8986,15 @@
         <v/>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF(EOD!F33="","",EOD!F33)</f>
+        <f>IF(EOD!G33="","",EOD!G33)</f>
         <v/>
       </c>
       <c r="G42" s="1" t="str">
-        <f>IF(EOD!G33="","",EOD!G33)</f>
+        <f>IF(EOD!H33="","",EOD!H33)</f>
         <v/>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF(EOD!H33="","",EOD!H33)</f>
+        <f>IF(EOD!I33="","",EOD!I33)</f>
         <v/>
       </c>
       <c r="I42" s="5">
@@ -9102,9 +9181,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD42" t="str">
+      <c r="BD42" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9129,15 +9208,15 @@
         <v/>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF(EOD!F34="","",EOD!F34)</f>
+        <f>IF(EOD!G34="","",EOD!G34)</f>
         <v/>
       </c>
       <c r="G43" s="1" t="str">
-        <f>IF(EOD!G34="","",EOD!G34)</f>
+        <f>IF(EOD!H34="","",EOD!H34)</f>
         <v/>
       </c>
       <c r="H43" s="1" t="str">
-        <f>IF(EOD!H34="","",EOD!H34)</f>
+        <f>IF(EOD!I34="","",EOD!I34)</f>
         <v/>
       </c>
       <c r="I43" s="5">
@@ -9324,9 +9403,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD43" t="str">
+      <c r="BD43" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9351,15 +9430,15 @@
         <v/>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF(EOD!F35="","",EOD!F35)</f>
+        <f>IF(EOD!G35="","",EOD!G35)</f>
         <v/>
       </c>
       <c r="G44" s="1" t="str">
-        <f>IF(EOD!G35="","",EOD!G35)</f>
+        <f>IF(EOD!H35="","",EOD!H35)</f>
         <v/>
       </c>
       <c r="H44" s="1" t="str">
-        <f>IF(EOD!H35="","",EOD!H35)</f>
+        <f>IF(EOD!I35="","",EOD!I35)</f>
         <v/>
       </c>
       <c r="I44" s="5">
@@ -9546,9 +9625,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD44" t="str">
+      <c r="BD44" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9573,15 +9652,15 @@
         <v/>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF(EOD!F36="","",EOD!F36)</f>
+        <f>IF(EOD!G36="","",EOD!G36)</f>
         <v/>
       </c>
       <c r="G45" s="1" t="str">
-        <f>IF(EOD!G36="","",EOD!G36)</f>
+        <f>IF(EOD!H36="","",EOD!H36)</f>
         <v/>
       </c>
       <c r="H45" s="1" t="str">
-        <f>IF(EOD!H36="","",EOD!H36)</f>
+        <f>IF(EOD!I36="","",EOD!I36)</f>
         <v/>
       </c>
       <c r="I45" s="5">
@@ -9768,9 +9847,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD45" t="str">
+      <c r="BD45" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9795,15 +9874,15 @@
         <v/>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF(EOD!F37="","",EOD!F37)</f>
+        <f>IF(EOD!G37="","",EOD!G37)</f>
         <v/>
       </c>
       <c r="G46" s="1" t="str">
-        <f>IF(EOD!G37="","",EOD!G37)</f>
+        <f>IF(EOD!H37="","",EOD!H37)</f>
         <v/>
       </c>
       <c r="H46" s="1" t="str">
-        <f>IF(EOD!H37="","",EOD!H37)</f>
+        <f>IF(EOD!I37="","",EOD!I37)</f>
         <v/>
       </c>
       <c r="I46" s="5">
@@ -9990,9 +10069,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD46" t="str">
+      <c r="BD46" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10017,15 +10096,15 @@
         <v/>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF(EOD!F38="","",EOD!F38)</f>
+        <f>IF(EOD!G38="","",EOD!G38)</f>
         <v/>
       </c>
       <c r="G47" s="1" t="str">
-        <f>IF(EOD!G38="","",EOD!G38)</f>
+        <f>IF(EOD!H38="","",EOD!H38)</f>
         <v/>
       </c>
       <c r="H47" s="1" t="str">
-        <f>IF(EOD!H38="","",EOD!H38)</f>
+        <f>IF(EOD!I38="","",EOD!I38)</f>
         <v/>
       </c>
       <c r="I47" s="5">
@@ -10212,9 +10291,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD47" t="str">
+      <c r="BD47" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10239,15 +10318,15 @@
         <v/>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF(EOD!F39="","",EOD!F39)</f>
+        <f>IF(EOD!G39="","",EOD!G39)</f>
         <v/>
       </c>
       <c r="G48" s="1" t="str">
-        <f>IF(EOD!G39="","",EOD!G39)</f>
+        <f>IF(EOD!H39="","",EOD!H39)</f>
         <v/>
       </c>
       <c r="H48" s="1" t="str">
-        <f>IF(EOD!H39="","",EOD!H39)</f>
+        <f>IF(EOD!I39="","",EOD!I39)</f>
         <v/>
       </c>
       <c r="I48" s="5">
@@ -10434,9 +10513,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD48" t="str">
+      <c r="BD48" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10461,15 +10540,15 @@
         <v/>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(EOD!F40="","",EOD!F40)</f>
+        <f>IF(EOD!G40="","",EOD!G40)</f>
         <v/>
       </c>
       <c r="G49" s="1" t="str">
-        <f>IF(EOD!G40="","",EOD!G40)</f>
+        <f>IF(EOD!H40="","",EOD!H40)</f>
         <v/>
       </c>
       <c r="H49" s="1" t="str">
-        <f>IF(EOD!H40="","",EOD!H40)</f>
+        <f>IF(EOD!I40="","",EOD!I40)</f>
         <v/>
       </c>
       <c r="I49" s="5">
@@ -10656,9 +10735,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD49" t="str">
+      <c r="BD49" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10683,15 +10762,15 @@
         <v/>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(EOD!F41="","",EOD!F41)</f>
+        <f>IF(EOD!G41="","",EOD!G41)</f>
         <v/>
       </c>
       <c r="G50" s="1" t="str">
-        <f>IF(EOD!G41="","",EOD!G41)</f>
+        <f>IF(EOD!H41="","",EOD!H41)</f>
         <v/>
       </c>
       <c r="H50" s="1" t="str">
-        <f>IF(EOD!H41="","",EOD!H41)</f>
+        <f>IF(EOD!I41="","",EOD!I41)</f>
         <v/>
       </c>
       <c r="I50" s="5">
@@ -10878,9 +10957,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD50" t="str">
+      <c r="BD50" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -10905,15 +10984,15 @@
         <v/>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(EOD!F42="","",EOD!F42)</f>
+        <f>IF(EOD!G42="","",EOD!G42)</f>
         <v/>
       </c>
       <c r="G51" s="1" t="str">
-        <f>IF(EOD!G42="","",EOD!G42)</f>
+        <f>IF(EOD!H42="","",EOD!H42)</f>
         <v/>
       </c>
       <c r="H51" s="1" t="str">
-        <f>IF(EOD!H42="","",EOD!H42)</f>
+        <f>IF(EOD!I42="","",EOD!I42)</f>
         <v/>
       </c>
       <c r="I51" s="5">
@@ -11100,9 +11179,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD51" t="str">
+      <c r="BD51" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11127,15 +11206,15 @@
         <v/>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF(EOD!F43="","",EOD!F43)</f>
+        <f>IF(EOD!G43="","",EOD!G43)</f>
         <v/>
       </c>
       <c r="G52" s="1" t="str">
-        <f>IF(EOD!G43="","",EOD!G43)</f>
+        <f>IF(EOD!H43="","",EOD!H43)</f>
         <v/>
       </c>
       <c r="H52" s="1" t="str">
-        <f>IF(EOD!H43="","",EOD!H43)</f>
+        <f>IF(EOD!I43="","",EOD!I43)</f>
         <v/>
       </c>
       <c r="I52" s="5">
@@ -11322,9 +11401,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD52" t="str">
+      <c r="BD52" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11349,15 +11428,15 @@
         <v/>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(EOD!F44="","",EOD!F44)</f>
+        <f>IF(EOD!G44="","",EOD!G44)</f>
         <v/>
       </c>
       <c r="G53" s="1" t="str">
-        <f>IF(EOD!G44="","",EOD!G44)</f>
+        <f>IF(EOD!H44="","",EOD!H44)</f>
         <v/>
       </c>
       <c r="H53" s="1" t="str">
-        <f>IF(EOD!H44="","",EOD!H44)</f>
+        <f>IF(EOD!I44="","",EOD!I44)</f>
         <v/>
       </c>
       <c r="I53" s="5">
@@ -11544,9 +11623,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD53" t="str">
+      <c r="BD53" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11571,15 +11650,15 @@
         <v/>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF(EOD!F45="","",EOD!F45)</f>
+        <f>IF(EOD!G45="","",EOD!G45)</f>
         <v/>
       </c>
       <c r="G54" s="1" t="str">
-        <f>IF(EOD!G45="","",EOD!G45)</f>
+        <f>IF(EOD!H45="","",EOD!H45)</f>
         <v/>
       </c>
       <c r="H54" s="1" t="str">
-        <f>IF(EOD!H45="","",EOD!H45)</f>
+        <f>IF(EOD!I45="","",EOD!I45)</f>
         <v/>
       </c>
       <c r="I54" s="5">
@@ -11766,9 +11845,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD54" t="str">
+      <c r="BD54" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:56" collapsed="1" x14ac:dyDescent="0.25">
@@ -11793,15 +11872,15 @@
         <v/>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF(EOD!F46="","",EOD!F46)</f>
+        <f>IF(EOD!G46="","",EOD!G46)</f>
         <v/>
       </c>
       <c r="G55" s="1" t="str">
-        <f>IF(EOD!G46="","",EOD!G46)</f>
+        <f>IF(EOD!H46="","",EOD!H46)</f>
         <v/>
       </c>
       <c r="H55" s="1" t="str">
-        <f>IF(EOD!H46="","",EOD!H46)</f>
+        <f>IF(EOD!I46="","",EOD!I46)</f>
         <v/>
       </c>
       <c r="I55" s="5">
@@ -11988,9 +12067,9 @@
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BD55" t="str">
+      <c r="BD55" t="e">
         <f t="shared" si="46"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:56" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14899,7 +14978,9 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14949,9 +15030,9 @@
         <f>'Depreciation Schedule'!BC11</f>
         <v/>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="e">
         <f>IF(AND('Depreciation Schedule'!A11&lt;&gt;"",'Depreciation Schedule'!BD11=" "),0,'Depreciation Schedule'!BD11)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F2" s="58" t="str">
         <f>'Depreciation Schedule'!BB11</f>
@@ -14975,9 +15056,9 @@
         <f>'Depreciation Schedule'!BC12</f>
         <v/>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="e">
         <f>IF(AND('Depreciation Schedule'!A12&lt;&gt;"",'Depreciation Schedule'!BD12=" "),0,'Depreciation Schedule'!BD12)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F3" s="58" t="str">
         <f>'Depreciation Schedule'!BB12</f>
@@ -15001,9 +15082,9 @@
         <f>'Depreciation Schedule'!BC13</f>
         <v/>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="e">
         <f>IF(AND('Depreciation Schedule'!A13&lt;&gt;"",'Depreciation Schedule'!BD13=" "),0,'Depreciation Schedule'!BD13)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F4" s="58" t="str">
         <f>'Depreciation Schedule'!BB13</f>
@@ -15027,9 +15108,9 @@
         <f>'Depreciation Schedule'!BC14</f>
         <v/>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="e">
         <f>IF(AND('Depreciation Schedule'!A14&lt;&gt;"",'Depreciation Schedule'!BD14=" "),0,'Depreciation Schedule'!BD14)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F5" s="58" t="str">
         <f>'Depreciation Schedule'!BB14</f>
@@ -15053,9 +15134,9 @@
         <f>'Depreciation Schedule'!BC15</f>
         <v/>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" t="e">
         <f>IF(AND('Depreciation Schedule'!A15&lt;&gt;"",'Depreciation Schedule'!BD15=" "),0,'Depreciation Schedule'!BD15)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F6" s="58" t="str">
         <f>'Depreciation Schedule'!BB15</f>
@@ -15079,9 +15160,9 @@
         <f>'Depreciation Schedule'!BC16</f>
         <v/>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" t="e">
         <f>IF(AND('Depreciation Schedule'!A16&lt;&gt;"",'Depreciation Schedule'!BD16=" "),0,'Depreciation Schedule'!BD16)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F7" s="58" t="str">
         <f>'Depreciation Schedule'!BB16</f>
@@ -15105,9 +15186,9 @@
         <f>'Depreciation Schedule'!BC17</f>
         <v/>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" t="e">
         <f>IF(AND('Depreciation Schedule'!A17&lt;&gt;"",'Depreciation Schedule'!BD17=" "),0,'Depreciation Schedule'!BD17)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F8" s="58" t="str">
         <f>'Depreciation Schedule'!BB17</f>
@@ -15131,9 +15212,9 @@
         <f>'Depreciation Schedule'!BC18</f>
         <v/>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" t="e">
         <f>IF(AND('Depreciation Schedule'!A18&lt;&gt;"",'Depreciation Schedule'!BD18=" "),0,'Depreciation Schedule'!BD18)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F9" s="58" t="str">
         <f>'Depreciation Schedule'!BB18</f>
@@ -15157,9 +15238,9 @@
         <f>'Depreciation Schedule'!BC19</f>
         <v/>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" t="e">
         <f>IF(AND('Depreciation Schedule'!A19&lt;&gt;"",'Depreciation Schedule'!BD19=" "),0,'Depreciation Schedule'!BD19)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F10" s="58" t="str">
         <f>'Depreciation Schedule'!BB19</f>
@@ -15183,9 +15264,9 @@
         <f>'Depreciation Schedule'!BC20</f>
         <v/>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" t="e">
         <f>IF(AND('Depreciation Schedule'!A20&lt;&gt;"",'Depreciation Schedule'!BD20=" "),0,'Depreciation Schedule'!BD20)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F11" s="58" t="str">
         <f>'Depreciation Schedule'!BB20</f>
@@ -15209,9 +15290,9 @@
         <f>'Depreciation Schedule'!BC21</f>
         <v/>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" t="e">
         <f>IF(AND('Depreciation Schedule'!A21&lt;&gt;"",'Depreciation Schedule'!BD21=" "),0,'Depreciation Schedule'!BD21)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F12" s="58" t="str">
         <f>'Depreciation Schedule'!BB21</f>
@@ -15235,9 +15316,9 @@
         <f>'Depreciation Schedule'!BC22</f>
         <v/>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" t="e">
         <f>IF(AND('Depreciation Schedule'!A22&lt;&gt;"",'Depreciation Schedule'!BD22=" "),0,'Depreciation Schedule'!BD22)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F13" s="58" t="str">
         <f>'Depreciation Schedule'!BB22</f>
@@ -15261,9 +15342,9 @@
         <f>'Depreciation Schedule'!BC23</f>
         <v/>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" t="e">
         <f>IF(AND('Depreciation Schedule'!A23&lt;&gt;"",'Depreciation Schedule'!BD23=" "),0,'Depreciation Schedule'!BD23)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F14" s="58" t="str">
         <f>'Depreciation Schedule'!BB23</f>
@@ -15287,9 +15368,9 @@
         <f>'Depreciation Schedule'!BC24</f>
         <v/>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" t="e">
         <f>IF(AND('Depreciation Schedule'!A24&lt;&gt;"",'Depreciation Schedule'!BD24=" "),0,'Depreciation Schedule'!BD24)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F15" s="58" t="str">
         <f>'Depreciation Schedule'!BB24</f>
@@ -15313,9 +15394,9 @@
         <f>'Depreciation Schedule'!BC25</f>
         <v/>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" t="e">
         <f>IF(AND('Depreciation Schedule'!A25&lt;&gt;"",'Depreciation Schedule'!BD25=" "),0,'Depreciation Schedule'!BD25)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F16" s="58" t="str">
         <f>'Depreciation Schedule'!BB25</f>
@@ -15339,9 +15420,9 @@
         <f>'Depreciation Schedule'!BC26</f>
         <v/>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" t="e">
         <f>IF(AND('Depreciation Schedule'!A26&lt;&gt;"",'Depreciation Schedule'!BD26=" "),0,'Depreciation Schedule'!BD26)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F17" s="58" t="str">
         <f>'Depreciation Schedule'!BB26</f>
@@ -15365,9 +15446,9 @@
         <f>'Depreciation Schedule'!BC27</f>
         <v/>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" t="e">
         <f>IF(AND('Depreciation Schedule'!A27&lt;&gt;"",'Depreciation Schedule'!BD27=" "),0,'Depreciation Schedule'!BD27)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F18" s="58" t="str">
         <f>'Depreciation Schedule'!BB27</f>
@@ -15391,9 +15472,9 @@
         <f>'Depreciation Schedule'!BC28</f>
         <v/>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" t="e">
         <f>IF(AND('Depreciation Schedule'!A28&lt;&gt;"",'Depreciation Schedule'!BD28=" "),0,'Depreciation Schedule'!BD28)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F19" s="58" t="str">
         <f>'Depreciation Schedule'!BB28</f>
@@ -15417,9 +15498,9 @@
         <f>'Depreciation Schedule'!BC29</f>
         <v/>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" t="e">
         <f>IF(AND('Depreciation Schedule'!A29&lt;&gt;"",'Depreciation Schedule'!BD29=" "),0,'Depreciation Schedule'!BD29)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F20" s="58" t="str">
         <f>'Depreciation Schedule'!BB29</f>
@@ -15443,9 +15524,9 @@
         <f>'Depreciation Schedule'!BC30</f>
         <v/>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" t="e">
         <f>IF(AND('Depreciation Schedule'!A30&lt;&gt;"",'Depreciation Schedule'!BD30=" "),0,'Depreciation Schedule'!BD30)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F21" s="58" t="str">
         <f>'Depreciation Schedule'!BB30</f>
@@ -15469,9 +15550,9 @@
         <f>'Depreciation Schedule'!BC31</f>
         <v/>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" t="e">
         <f>IF(AND('Depreciation Schedule'!A31&lt;&gt;"",'Depreciation Schedule'!BD31=" "),0,'Depreciation Schedule'!BD31)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F22" s="58" t="str">
         <f>'Depreciation Schedule'!BB31</f>
@@ -15495,9 +15576,9 @@
         <f>'Depreciation Schedule'!BC32</f>
         <v/>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" t="e">
         <f>IF(AND('Depreciation Schedule'!A32&lt;&gt;"",'Depreciation Schedule'!BD32=" "),0,'Depreciation Schedule'!BD32)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F23" s="58" t="str">
         <f>'Depreciation Schedule'!BB32</f>
@@ -15521,9 +15602,9 @@
         <f>'Depreciation Schedule'!BC33</f>
         <v/>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" t="e">
         <f>IF(AND('Depreciation Schedule'!A33&lt;&gt;"",'Depreciation Schedule'!BD33=" "),0,'Depreciation Schedule'!BD33)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F24" s="58" t="str">
         <f>'Depreciation Schedule'!BB33</f>
@@ -15547,9 +15628,9 @@
         <f>'Depreciation Schedule'!BC34</f>
         <v/>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" t="e">
         <f>IF(AND('Depreciation Schedule'!A34&lt;&gt;"",'Depreciation Schedule'!BD34=" "),0,'Depreciation Schedule'!BD34)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F25" s="58" t="str">
         <f>'Depreciation Schedule'!BB34</f>
@@ -15573,9 +15654,9 @@
         <f>'Depreciation Schedule'!BC35</f>
         <v/>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" t="e">
         <f>IF(AND('Depreciation Schedule'!A35&lt;&gt;"",'Depreciation Schedule'!BD35=" "),0,'Depreciation Schedule'!BD35)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F26" s="58" t="str">
         <f>'Depreciation Schedule'!BB35</f>
@@ -15599,9 +15680,9 @@
         <f>'Depreciation Schedule'!BC36</f>
         <v/>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" t="e">
         <f>IF(AND('Depreciation Schedule'!A36&lt;&gt;"",'Depreciation Schedule'!BD36=" "),0,'Depreciation Schedule'!BD36)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F27" s="58" t="str">
         <f>'Depreciation Schedule'!BB36</f>
@@ -15625,9 +15706,9 @@
         <f>'Depreciation Schedule'!BC37</f>
         <v/>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" t="e">
         <f>IF(AND('Depreciation Schedule'!A37&lt;&gt;"",'Depreciation Schedule'!BD37=" "),0,'Depreciation Schedule'!BD37)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F28" s="58" t="str">
         <f>'Depreciation Schedule'!BB37</f>
@@ -15651,9 +15732,9 @@
         <f>'Depreciation Schedule'!BC38</f>
         <v/>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" t="e">
         <f>IF(AND('Depreciation Schedule'!A38&lt;&gt;"",'Depreciation Schedule'!BD38=" "),0,'Depreciation Schedule'!BD38)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F29" s="58" t="str">
         <f>'Depreciation Schedule'!BB38</f>
@@ -15677,9 +15758,9 @@
         <f>'Depreciation Schedule'!BC39</f>
         <v/>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" t="e">
         <f>IF(AND('Depreciation Schedule'!A39&lt;&gt;"",'Depreciation Schedule'!BD39=" "),0,'Depreciation Schedule'!BD39)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F30" s="58" t="str">
         <f>'Depreciation Schedule'!BB39</f>
@@ -15703,9 +15784,9 @@
         <f>'Depreciation Schedule'!BC40</f>
         <v/>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" t="e">
         <f>IF(AND('Depreciation Schedule'!A40&lt;&gt;"",'Depreciation Schedule'!BD40=" "),0,'Depreciation Schedule'!BD40)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F31" s="58" t="str">
         <f>'Depreciation Schedule'!BB40</f>
@@ -15729,9 +15810,9 @@
         <f>'Depreciation Schedule'!BC41</f>
         <v/>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" t="e">
         <f>IF(AND('Depreciation Schedule'!A41&lt;&gt;"",'Depreciation Schedule'!BD41=" "),0,'Depreciation Schedule'!BD41)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F32" s="58" t="str">
         <f>'Depreciation Schedule'!BB41</f>
@@ -15755,9 +15836,9 @@
         <f>'Depreciation Schedule'!BC42</f>
         <v/>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" t="e">
         <f>IF(AND('Depreciation Schedule'!A42&lt;&gt;"",'Depreciation Schedule'!BD42=" "),0,'Depreciation Schedule'!BD42)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F33" s="58" t="str">
         <f>'Depreciation Schedule'!BB42</f>
@@ -15781,9 +15862,9 @@
         <f>'Depreciation Schedule'!BC43</f>
         <v/>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" t="e">
         <f>IF(AND('Depreciation Schedule'!A43&lt;&gt;"",'Depreciation Schedule'!BD43=" "),0,'Depreciation Schedule'!BD43)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F34" s="58" t="str">
         <f>'Depreciation Schedule'!BB43</f>
@@ -15807,9 +15888,9 @@
         <f>'Depreciation Schedule'!BC44</f>
         <v/>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" t="e">
         <f>IF(AND('Depreciation Schedule'!A44&lt;&gt;"",'Depreciation Schedule'!BD44=" "),0,'Depreciation Schedule'!BD44)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F35" s="58" t="str">
         <f>'Depreciation Schedule'!BB44</f>
@@ -15833,9 +15914,9 @@
         <f>'Depreciation Schedule'!BC45</f>
         <v/>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" t="e">
         <f>IF(AND('Depreciation Schedule'!A45&lt;&gt;"",'Depreciation Schedule'!BD45=" "),0,'Depreciation Schedule'!BD45)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F36" s="58" t="str">
         <f>'Depreciation Schedule'!BB45</f>
@@ -15859,9 +15940,9 @@
         <f>'Depreciation Schedule'!BC46</f>
         <v/>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" t="e">
         <f>IF(AND('Depreciation Schedule'!A46&lt;&gt;"",'Depreciation Schedule'!BD46=" "),0,'Depreciation Schedule'!BD46)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F37" s="58" t="str">
         <f>'Depreciation Schedule'!BB46</f>
@@ -15885,9 +15966,9 @@
         <f>'Depreciation Schedule'!BC47</f>
         <v/>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" t="e">
         <f>IF(AND('Depreciation Schedule'!A47&lt;&gt;"",'Depreciation Schedule'!BD47=" "),0,'Depreciation Schedule'!BD47)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F38" s="58" t="str">
         <f>'Depreciation Schedule'!BB47</f>
@@ -15911,9 +15992,9 @@
         <f>'Depreciation Schedule'!BC48</f>
         <v/>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" t="e">
         <f>IF(AND('Depreciation Schedule'!A48&lt;&gt;"",'Depreciation Schedule'!BD48=" "),0,'Depreciation Schedule'!BD48)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F39" s="58" t="str">
         <f>'Depreciation Schedule'!BB48</f>
@@ -15937,9 +16018,9 @@
         <f>'Depreciation Schedule'!BC49</f>
         <v/>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" t="e">
         <f>IF(AND('Depreciation Schedule'!A49&lt;&gt;"",'Depreciation Schedule'!BD49=" "),0,'Depreciation Schedule'!BD49)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F40" s="58" t="str">
         <f>'Depreciation Schedule'!BB49</f>
@@ -15963,9 +16044,9 @@
         <f>'Depreciation Schedule'!BC50</f>
         <v/>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" t="e">
         <f>IF(AND('Depreciation Schedule'!A50&lt;&gt;"",'Depreciation Schedule'!BD50=" "),0,'Depreciation Schedule'!BD50)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F41" s="58" t="str">
         <f>'Depreciation Schedule'!BB50</f>
@@ -15989,9 +16070,9 @@
         <f>'Depreciation Schedule'!BC51</f>
         <v/>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" t="e">
         <f>IF(AND('Depreciation Schedule'!A51&lt;&gt;"",'Depreciation Schedule'!BD51=" "),0,'Depreciation Schedule'!BD51)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F42" s="58" t="str">
         <f>'Depreciation Schedule'!BB51</f>
@@ -16015,9 +16096,9 @@
         <f>'Depreciation Schedule'!BC52</f>
         <v/>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" t="e">
         <f>IF(AND('Depreciation Schedule'!A52&lt;&gt;"",'Depreciation Schedule'!BD52=" "),0,'Depreciation Schedule'!BD52)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F43" s="58" t="str">
         <f>'Depreciation Schedule'!BB52</f>
@@ -16041,9 +16122,9 @@
         <f>'Depreciation Schedule'!BC53</f>
         <v/>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" t="e">
         <f>IF(AND('Depreciation Schedule'!A53&lt;&gt;"",'Depreciation Schedule'!BD53=" "),0,'Depreciation Schedule'!BD53)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F44" s="58" t="str">
         <f>'Depreciation Schedule'!BB53</f>
@@ -16067,9 +16148,9 @@
         <f>'Depreciation Schedule'!BC54</f>
         <v/>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" t="e">
         <f>IF(AND('Depreciation Schedule'!A54&lt;&gt;"",'Depreciation Schedule'!BD54=" "),0,'Depreciation Schedule'!BD54)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F45" s="58" t="str">
         <f>'Depreciation Schedule'!BB54</f>
@@ -16093,9 +16174,9 @@
         <f>'Depreciation Schedule'!BC55</f>
         <v/>
       </c>
-      <c r="E46" t="str">
+      <c r="E46" t="e">
         <f>IF(AND('Depreciation Schedule'!A55&lt;&gt;"",'Depreciation Schedule'!BD55=" "),0,'Depreciation Schedule'!BD55)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F46" s="58" t="str">
         <f>'Depreciation Schedule'!BB55</f>
@@ -16109,6 +16190,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <WFDescription xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">This worksheet is intended to assist in tracking an organization's fixed assets and annual depreciation estimates </WFDescription>
+    <WFResourceType xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Tool</WFResourceType>
+    <WFResourceName xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Fixed Asset and Depreciation Schedule</WFResourceName>
+    <MainFile xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">true</MainFile>
+    <TimelineSeason xmlns="4268b559-ae5c-44d0-acfc-003748d801b3"/>
+    <SortOrder xmlns="4268b559-ae5c-44d0-acfc-003748d801b3" xsi:nil="true"/>
+    <ResourceFileType xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Tool</ResourceFileType>
+    <Thumbnail1 xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">&lt;img alt="Fixed Asset and Depreciation Schedule" src="/knowledge-center/resources-for-financial-management/PublishingImages/fixed-asset-and-depreciation-schedule-b.jpg" style="BORDER: 0px solid; "&gt;</Thumbnail1>
+    <HomeFeature xmlns="90a05e0c-a6a9-4150-9aa7-29216b1f1e3b">false</HomeFeature>
+    <SFMWFResourceTopic xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Audit Readiness</SFMWFResourceTopic>
+    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url>http://admin.wallacefoundation.org/knowledge-center/resources-for-financial-management/Documents/Fixed-Asset-and-Depreciation-Schedule.xlsx</Url>
+      <Description>Fixed Asset and Depreciation Schedule</Description>
+    </URL>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WF SFM Resource" ma:contentTypeID="0x010100234DEAEFA0EF5147BA563C9D9835A8810015175633169C16488E4AE84A5BAE6BC0" ma:contentTypeVersion="7" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f39c8da291eca82accd49647eee735cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4268b559-ae5c-44d0-acfc-003748d801b3" xmlns:ns3="90a05e0c-a6a9-4150-9aa7-29216b1f1e3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d8b5abe604e2741829712f382ea7d92" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -16357,37 +16468,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8D129C-FE20-4CFB-AFFB-43CD45C50FD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4268b559-ae5c-44d0-acfc-003748d801b3"/>
+    <ds:schemaRef ds:uri="90a05e0c-a6a9-4150-9aa7-29216b1f1e3b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <WFDescription xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">This worksheet is intended to assist in tracking an organization's fixed assets and annual depreciation estimates </WFDescription>
-    <WFResourceType xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Tool</WFResourceType>
-    <WFResourceName xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Fixed Asset and Depreciation Schedule</WFResourceName>
-    <MainFile xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">true</MainFile>
-    <TimelineSeason xmlns="4268b559-ae5c-44d0-acfc-003748d801b3"/>
-    <SortOrder xmlns="4268b559-ae5c-44d0-acfc-003748d801b3" xsi:nil="true"/>
-    <ResourceFileType xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Tool</ResourceFileType>
-    <Thumbnail1 xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">&lt;img alt="Fixed Asset and Depreciation Schedule" src="/knowledge-center/resources-for-financial-management/PublishingImages/fixed-asset-and-depreciation-schedule-b.jpg" style="BORDER: 0px solid; "&gt;</Thumbnail1>
-    <HomeFeature xmlns="90a05e0c-a6a9-4150-9aa7-29216b1f1e3b">false</HomeFeature>
-    <SFMWFResourceTopic xmlns="4268b559-ae5c-44d0-acfc-003748d801b3">Audit Readiness</SFMWFResourceTopic>
-    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url>http://admin.wallacefoundation.org/knowledge-center/resources-for-financial-management/Documents/Fixed-Asset-and-Depreciation-Schedule.xlsx</Url>
-      <Description>Fixed Asset and Depreciation Schedule</Description>
-    </URL>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F191EC-4B3D-4FFB-B396-14A8002B9C27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C14EF638-4EA9-4833-B219-6179288EA948}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16405,24 +16506,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F191EC-4B3D-4FFB-B396-14A8002B9C27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8D129C-FE20-4CFB-AFFB-43CD45C50FD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4268b559-ae5c-44d0-acfc-003748d801b3"/>
-    <ds:schemaRef ds:uri="90a05e0c-a6a9-4150-9aa7-29216b1f1e3b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>